--- a/src/attributions/attributions_ig_traj_213.xlsx
+++ b/src/attributions/attributions_ig_traj_213.xlsx
@@ -1004,25 +1004,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1205362691132697</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.05857976216590616</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01610029979779071</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.008408011837090373</v>
+        <v>-0.01888120621804625</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.0203855397902023</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
@@ -1031,103 +1031,103 @@
         <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07186269935333851</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0299928049519335</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.005602355687177127</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02544268327156182</v>
+        <v>-0.01089995889946745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0.00667877365007149</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03932206384221265</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.01654636076433435</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.013171857773431</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.111809169882319</v>
+        <v>-0.01042067908575006</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.01403447623498818</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01486571703772814</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.001259812823735357</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01307410311527779</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01642814822694579</v>
+        <v>0.01185383751133275</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0.003160625521436439</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.05155885277100795</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.009029747618988695</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.004720950015584096</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02710359220299443</v>
+        <v>-0.01712922692062095</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>-0.01269008601852631</v>
       </c>
       <c r="AQ2" t="n">
         <v>-0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1355848856362328</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.09496712070205957</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.02978218379180556</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.008504126196192554</v>
+        <v>-0.005253819272273115</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.01781520962608266</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,25 +1163,25 @@
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.05799000339756758</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.02774740738874796</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.02686433725302805</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.004479790457547105</v>
+        <v>-0.0625554971628951</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>-0.05179222338749523</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1190,52 +1190,52 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.01981453363286837</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.03310849236243992</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.02078265215044805</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.06043560488150421</v>
+        <v>0.01717214750584752</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0.02124503709866132</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.109276188410687</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.03852358388230913</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.00755895760073396</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-5.895758752265603e-05</v>
+        <v>-0.01628206935818587</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>-0.002220641320605768</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
@@ -1247,157 +1247,157 @@
         <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.05263714718980554</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.02085020558283656</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01647792582623519</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00887994614059362</v>
+        <v>0.000932147716061748</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0.01778791648987622</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0004568294977815616</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>0.0001705343403372412</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.0008926425154365379</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
         <v>-0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00184103713761465</v>
+        <v>-0.0005307626724878425</v>
       </c>
       <c r="CR2" t="n">
-        <v>0</v>
+        <v>0.001872966322990907</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.04601816989035017</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.01406022084487147</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01881752013582701</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.01088684535646351</v>
+        <v>0.003596644794373764</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>0.01924193605150683</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.01219956247126608</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.01374579527538362</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01388365009014719</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0258331081415787</v>
+        <v>0.02256956078796049</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>-0.004384530370606515</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.008446191904165132</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.002341425410188997</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.002670689472635354</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01014021664749139</v>
+        <v>0.01909771854656373</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>-0.007890010189655596</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
         <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.012506269644832</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.03314451819664069</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.007012626059664559</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.03834460248135586</v>
+        <v>0.01648596521166419</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>0.01185669309768213</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1406,192 +1406,192 @@
         <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.08583130424178292</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.02164536475060758</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.01494356943518004</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
         <v>-0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02853771608535023</v>
+        <v>0.001761628476095122</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>0.01624790736964292</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.0236271046102171</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.007991888694769935</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02484772882980943</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01092152674677533</v>
+        <v>0.006294940717297852</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>-0.0009701418870777929</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.045123414206017</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.01451859409637956</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.01663521982225163</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01012651370769612</v>
+        <v>0.004916009259414404</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0.02342778132040133</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0524797013580258</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0</v>
+        <v>-0.02062675179462328</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.004422288318288793</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
         <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.008594837728163208</v>
+        <v>0.01567639152231338</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>0.01202485458296285</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.02014630870908621</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.005494600845304387</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.003320700572762153</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.02534364594703467</v>
+        <v>-0.01993332980662437</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0.00465628731437981</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05810701069794894</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-9.306372115963917e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.002348211630283597</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>-0.01350052710315239</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.09325822530071978</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.3282621506258979</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.07067469111754217</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02583164126821531</v>
+        <v>-0.05519528114603867</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009861694394234477</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1600,25 +1600,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06098006357154293</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.1729014843720989</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0.02049498823427041</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.02964878635293422</v>
+        <v>-0.03059516725542099</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0005441685253782587</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1627,52 +1627,52 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.007898416814020842</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.1128268429334163</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0.05832513287221273</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.05909923783914308</v>
+        <v>0.04439830741229778</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.06771592005932577</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02707216495432547</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.02779457650487974</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.01083018934703295</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002299443107953804</v>
+        <v>-0.023942770788668</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04408748227524809</v>
+        <v>-0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -1681,52 +1681,52 @@
         <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.04833481725577143</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.04507584265991715</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0.05355310061271018</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01034988409442838</v>
+        <v>-0.03378635328945417</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.005822091838974327</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1016179615914191</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.4817713100722847</v>
       </c>
       <c r="AV3" t="n">
         <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0.02059426733703729</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02402043474005134</v>
+        <v>0.06064063435997195</v>
       </c>
       <c r="AY3" t="n">
         <v>-0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.01440929961847443</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
@@ -1735,25 +1735,25 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0320879323273866</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.05618590033816762</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>-0.1495366466346227</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.04408477147780882</v>
+        <v>-0.1661584109804778</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0130682066639446</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
@@ -1762,187 +1762,187 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.02125726486092328</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.09166139130090777</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>0.08722802718334731</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.04822532182870534</v>
+        <v>0.1003770477218975</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.005962323129458563</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.06576847967858267</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.2446100089885039</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0.01731787949323511</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.006722642569653233</v>
+        <v>0.02140900968217718</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01636676413795298</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.03847975197066427</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.1199720790995365</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>0.005454383253417465</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01311167267772261</v>
+        <v>-0.01254247660993785</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.009054889119084692</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.002166651673996988</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.001612577650813489</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0.004034987995798068</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.0008863782096521346</v>
+        <v>-0.003965357549202132</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0005376700827078572</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.03388667847241614</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.1008374670215959</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0.04842465952943773</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.005793721679294956</v>
+        <v>-0.02311254820948533</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.003524056659044718</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.009138947596700168</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.05076198593894102</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>0.07623925588711677</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.001493746617820966</v>
+        <v>0.01882772172872198</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.000451873571953047</v>
+        <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.02290790602435319</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.09765554680361922</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0.02792547430473369</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.02363456443067655</v>
+        <v>-0.05806584383117854</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.03284701916070101</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -1951,213 +1951,213 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.009804060342283902</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.06141888835830987</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0</v>
+        <v>-0.03211834457639402</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.01386651879341305</v>
+        <v>0.003796832037543681</v>
       </c>
       <c r="EB3" t="n">
         <v>-0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.006527505958506138</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.06409955299818269</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.08802192326429048</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>-0.001654778752347651</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0157977394552115</v>
+        <v>0.05531885967436971</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.01800174228770115</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.0235026469739507</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.03013370523521062</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>0.03293569424628789</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.03537632593740991</v>
+        <v>-0.007535749003071051</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.001422021940999954</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.02982899271869173</v>
+        <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.09577218678658288</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>0.01979856230954029</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.0009250362271637039</v>
+        <v>-0.01435157516608045</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0.004297858831986735</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.05054686011359844</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.01376412416798826</v>
       </c>
       <c r="FI3" t="n">
         <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0.02310937950407561</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03558218145349822</v>
+        <v>-0.009795191954095058</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.005030986621466516</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.002843398115296585</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.01684039270058593</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0</v>
+        <v>0.06859111605445233</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.007309338233137381</v>
+        <v>-0.05867424185434746</v>
       </c>
       <c r="FU3" t="n">
         <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.003980515933211585</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.04949317374388164</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0.04379974577255098</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0.05741347007397408</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.02504179550038785</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1824707598156058</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.1252741924572693</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04812077057709947</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01017136612635448</v>
+        <v>-0.02442850019046082</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.06195940091863949</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2166,106 +2166,106 @@
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1389125537605739</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.07432019467939344</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.02342135597357106</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.06568124073410304</v>
+        <v>-0.006293762136260432</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.02981401254629272</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05739779250647867</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.02454648284269994</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.01494726062689009</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1644603603642099</v>
+        <v>-0.03972750031079016</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.008323500390494358</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.009183793737416394</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.002229007468346449</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01389357232433079</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.03166449529573277</v>
+        <v>0.006913792044371568</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>-0.005413586804060021</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.07300514715513015</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.02633221778613722</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.0161640788611146</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.04570264735877678</v>
+        <v>-0.01296338150204399</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.04187905734884135</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
@@ -2277,25 +2277,25 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1647412412688017</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.1442448904333173</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.06954506307784011</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01326959838848851</v>
+        <v>-0.05793107057758094</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0</v>
+        <v>-0.07495670962056133</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.05547608460413298</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.05767448850617522</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.04855603636622557</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.007807466868844713</v>
+        <v>-0.02906618339284424</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.05076884527574192</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -2331,22 +2331,22 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.01055563864265359</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.04464983076964783</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.04744143060511019</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1126032071025702</v>
+        <v>0.02087101932238842</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0.01486810779077125</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2355,25 +2355,25 @@
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1660496748914055</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.07671391141237444</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.01792564589243181</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.003378764985363962</v>
+        <v>-0.03719275841370218</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.02336855236693523</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2385,22 +2385,22 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.06765281220673845</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.03710706565226674</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02632468216219551</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01194950208889675</v>
+        <v>-0.00689452765706173</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03548946732066772</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
@@ -2412,49 +2412,49 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.00235912647021905</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>9.905483036298557e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0007149710202257871</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.008743204107883953</v>
+        <v>0.001885875986163292</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0.001795254060951644</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.05373099180891903</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.03124201909351357</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.02817154295195143</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01921983001781793</v>
+        <v>-0.00368760994463534</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.04049728890235434</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
@@ -2463,25 +2463,25 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.02573498515613074</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.04119536163551066</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.02560335635610684</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.008704877878653691</v>
+        <v>0.06272896353173425</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0.000993540312262385</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2490,106 +2490,106 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01478375323886433</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.01661400322171659</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.02852382862090262</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.02773027928968049</v>
+        <v>0.01207476079607537</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>-0.002415154066687166</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0270225086190451</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.03829024765850243</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.0001853468922863994</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.05966651687807436</v>
+        <v>0.02130768646568726</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0.03191394859691989</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.1174341665735159</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.02687247043137405</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.02866366251644929</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0446389999355456</v>
+        <v>0.009398060924585035</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.03950571090450264</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.0459557624903987</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.02775340907505281</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.03928768773218656</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.009145045351965791</v>
+        <v>-0.01419170093616628</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>-0.004494226890475793</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.05721760070506003</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.0326558970689864</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.02495712891352601</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.01257791297135492</v>
+        <v>-0.001618542500429806</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.04111796872556208</v>
       </c>
       <c r="FD4" t="n">
         <v>-0</v>
@@ -2628,67 +2628,67 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0668103658923801</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>-0.02112262252595172</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.01316977612256289</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
         <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-1.741392176379906e-05</v>
+        <v>0.01143210900121192</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.0250582651477698</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.01212218030108216</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.01102773000475583</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.004030542802484769</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.04293606402045221</v>
+        <v>-0.03484134271576299</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0</v>
+        <v>0.02693260878948061</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.07305768357176531</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.003565491495719416</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.00767531225521846</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
@@ -2697,144 +2697,144 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.01830307506109398</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1746421638489336</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.0949652096974922</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04823254718702018</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02522556299161922</v>
+        <v>-0.03728630638338568</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.0590392977445939</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.12780292866297</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.06267368577161539</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01688342732477192</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.05934313322305006</v>
+        <v>-0.01981601960630219</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0.01894069408257634</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03769164827333153</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.01120444826824325</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.01301811293033072</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1159734897360042</v>
+        <v>-0.01442674390834903</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.01460814183037137</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01197047704878193</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.0006015177941063843</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.003325992370578493</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.008032188935058582</v>
+        <v>0.007546488730120055</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>-0.007073630091902101</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05124553793837821</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.01020854347062319</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.00880580779858877</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02599535570852681</v>
+        <v>-0.01616442117426703</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01460132976577186</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
@@ -2846,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1410978074695696</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.1068862311197557</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.05220913106183474</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.015220187003165</v>
+        <v>-0.03736026872051163</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>-0.04847898986005111</v>
       </c>
       <c r="AZ5" t="n">
         <v>-0</v>
@@ -2870,25 +2870,25 @@
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.06332803744845578</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.03389401427689764</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.04255057823786356</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02333521078680279</v>
+        <v>-0.06464999640328285</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.05666062607004092</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -2897,52 +2897,52 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.02301656655916902</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.03586272656131363</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.03028783151786787</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.07731837691340622</v>
+        <v>0.02519317607495223</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.0151388999010284</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1182644470038676</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.05342061989584779</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.00694730175262892</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.007747472858961961</v>
+        <v>-0.0179048286579471</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.009747843096237442</v>
       </c>
       <c r="CA5" t="n">
         <v>-0</v>
@@ -2954,52 +2954,52 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.06054311856769021</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.02636874105947959</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02334666216379244</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01267791576386203</v>
+        <v>0.001975801502900745</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.02604634371896382</v>
       </c>
       <c r="CJ5" t="n">
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.001646790227602917</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.001887142121853433</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.000238682361020978</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
         <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.01109522681989361</v>
+        <v>0.003239020109405809</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.005377598091282574</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
@@ -3008,22 +3008,22 @@
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.05058262920805875</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01916135139224375</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02438898303165171</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01012701563516942</v>
+        <v>0.006937739978479198</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.02884377715882283</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3035,52 +3035,52 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.02450141904141858</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.03234619531410638</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01430822545300242</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.017038636407128</v>
+        <v>0.03936533021144174</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.000197873080402129</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.007664729471469942</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.005677214123200489</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.007844361973436886</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.01468683749378473</v>
+        <v>0.003862112331394705</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.003268016883474112</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
@@ -3089,175 +3089,175 @@
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.01284145149075682</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.02769429968492073</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.005357246155379466</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.04063719853587094</v>
+        <v>0.01745060575821885</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0.02120898817590763</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.09789365615584962</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.0267120190186194</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02181454593302244</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.03315478804969153</v>
+        <v>0.01339614754204236</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0.03071112427057209</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.02713347017096796</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.01244741457063447</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.03296228874822744</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002898111534470185</v>
+        <v>0.01966083564541494</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.002215931375825109</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.05083822774156872</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01875397282933003</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.02250946917094296</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.008150434976573057</v>
+        <v>0.00905219666370099</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.03065847987327199</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.06155841006910166</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.0133818155736513</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.01011918979521645</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0003266754148942432</v>
+        <v>0.01530504313212281</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>0.01367942837739076</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01684832445362374</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.005973686642064843</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0004221481658619417</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.02271693915769139</v>
+        <v>-0.02268208300126317</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.001941105247428274</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.05561074106194691</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.004506187631375721</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001594717580775327</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
         <v>-0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.004650591706309626</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
@@ -3280,25 +3280,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1765794623069239</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.2664677566275784</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.06687557076772582</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06341469104587649</v>
+        <v>-0.02166332157013325</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008536815617469239</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>-0</v>
@@ -3307,160 +3307,160 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1276696764833385</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.1575619066178652</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0.01739184430242398</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0755654393145453</v>
+        <v>-0.0234216242837453</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.001048533972545218</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01592582586777506</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.09193335737946468</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.008577422441560982</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.07252099258254267</v>
+        <v>0.07137315371615988</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.04668445945885828</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02345808251474796</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.1288799954084406</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0</v>
+        <v>-0.05543314083658589</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.02335003514993097</v>
+        <v>-0.0639881317689983</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.04916369915009188</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.06280833114520928</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.0191668443617124</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.07465173304347805</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.02691441448692046</v>
+        <v>-0.03950184855812367</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.007849988142020944</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1426384718190973</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.3402261065497438</v>
       </c>
       <c r="AV6" t="n">
         <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>-0.02282106211632072</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.001250190853264199</v>
+        <v>0.1402708353076748</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0428045462868317</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.06764638668658941</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.02317112199111455</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0.05263425754150079</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.04413859557598949</v>
+        <v>-0.1742390220434095</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.003653282165043415</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.02163454903038452</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.02846254590458597</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.102396423490388</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.05201650618277912</v>
+        <v>0.09760688781120505</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.01925267524323727</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>-0</v>
@@ -3496,25 +3496,25 @@
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1209475301034764</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.1955332599769841</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>0.009760102215575569</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.02033512865275312</v>
+        <v>0.06368245706280408</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0228068208843935</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
@@ -3523,79 +3523,79 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.06266749890322544</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.08647086017442367</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0</v>
+        <v>0.01847732359235087</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.02373517234342923</v>
+        <v>-0.003477414591038768</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.007711010225905595</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.006849021538398132</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.01236449922424798</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>-0.01366777652518273</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.0145274036423924</v>
+        <v>-0.0160037832829557</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.00270455080931989</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.05639386139553255</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.07297756348712434</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.04121773983686554</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01072664090260772</v>
+        <v>-0.002979086157617199</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.002242659560318153</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
         <v>-0</v>
@@ -3604,270 +3604,270 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.008301322802989288</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.008189238239191465</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>0.0006852416009869649</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.03960648777880778</v>
+        <v>-0.005680473924477154</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-8.448211980306129e-05</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.00507978036448144</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.05631915012161703</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>-0.05904615088694184</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.02731105383983084</v>
+        <v>-0.06804997619157721</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.02292973673753845</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0.0008401904551567278</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.008222784841514215</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0.02412267923838689</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.007886229466411699</v>
+        <v>-0.007746247568073735</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0.001881356407000138</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.09868025245602555</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.05374992536739786</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0.02801380733983705</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.0412457401267162</v>
+        <v>0.09216251684078954</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.0355949730293887</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.02061314044916866</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.07881720500327108</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0.09619705771774714</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.06510666557105108</v>
+        <v>-0.01231212388575484</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0.01656183858682914</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.05309997183731242</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.076543493233383</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.02745528439441419</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.005930780278640177</v>
+        <v>-0.008365943726777019</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.005626972649690976</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.05746239145258311</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.006700438497129123</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0</v>
+        <v>0.05307044812016626</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02356126291374643</v>
+        <v>-0.02047170078642161</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.002990459040442057</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
         <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.01370147531448089</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.004647956637920265</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0</v>
+        <v>0.07662880175140503</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.007515198533407453</v>
+        <v>0.0300889572119485</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.00960700623813265</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
         <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0303674369505176</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.03306653617143729</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.02599061361645779</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.02100680153639069</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.222754492949038</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.1614021059590444</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0940967965495338</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02615152213884111</v>
+        <v>-0.04219809942237988</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>-0.1079967222197808</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
@@ -3876,25 +3876,25 @@
         <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1717659647594455</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1102659777608607</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.05033868264323666</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05854153211766897</v>
+        <v>-0.01007459886424139</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0.04660032298544525</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
@@ -3903,106 +3903,106 @@
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02303934291026905</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.03145484414712869</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.03845832325762965</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1265740036894197</v>
+        <v>-0.02748880627428892</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>6.687332830135055e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02105332281703358</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>-0.003045064894926972</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01721373270108966</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
         <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.06286393837637159</v>
+        <v>-0.002934934990847403</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-0.01141117984401613</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.06523512069356009</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02630078945839943</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.01960520019292418</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03725830419137392</v>
+        <v>-0.009227050241081072</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>-0.05160836073309838</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1619816361586657</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1499935728907132</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1200957720732108</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-6.933357929741472e-05</v>
+        <v>-0.0360768711567828</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0.1144330747275005</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,76 +4011,76 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.05394282269095859</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.05051923695949444</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.04833280408119918</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.04532856479152779</v>
+        <v>-0.0430234418886324</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>-0.05013006106580862</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK7" t="n">
         <v>-0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.004406517201288665</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.04514426184019323</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.04865062095846848</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1046202396718232</v>
+        <v>0.02377076728441082</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0.005634465044272521</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1595939987959164</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.08779114063483127</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.03380117145189445</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0246202813505214</v>
+        <v>-0.02226653557702884</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>-0.0337682231030756</v>
       </c>
       <c r="CA7" t="n">
         <v>-0</v>
@@ -4092,22 +4092,22 @@
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.07286359734077932</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.04164081896780822</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0301865588626969</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.004873195041359013</v>
+        <v>0.002601319383258837</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0.0374618592202823</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
@@ -4119,49 +4119,49 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.01065094345032847</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.0005985778091141983</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.003693628247074588</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.02289114150015647</v>
+        <v>0.0002034027407754048</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>-0.008772969344912052</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.06664493027138346</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.03694744982586466</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.03089507189950681</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01722709360119777</v>
+        <v>0.007457222889347062</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>0.04104813592563297</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
@@ -4170,55 +4170,55 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.005661065488451102</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>0.006254489742205234</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0281541517866173</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.02501872519816806</v>
+        <v>0.0542942140211693</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0.002370282113173969</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001118214812400795</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.01863149912064417</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.03756952293671211</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
         <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04152551792507934</v>
+        <v>0.01587481718419863</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0.0104301240679308</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,76 +4227,76 @@
         <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.004650040070537858</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.04859353726203718</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.005286245127288771</v>
+        <v>-0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.02198000559534713</v>
+        <v>0.03011983511169006</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0.01615980642009766</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1098160488488402</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.0338345813974287</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.03975434691739434</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0183530799359089</v>
+        <v>0.01346392181100476</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>0.03722704469168663</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.0491828526409278</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03490093756772508</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.03473148065721039</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.01187549099080339</v>
+        <v>-0.00491364843081376</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>0.001223714918450935</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,25 +4305,25 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.06632050563198819</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03708898914753966</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.02543000656388192</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.01089000676441849</v>
+        <v>0.008857912294380644</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0.03881385243021201</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
@@ -4335,67 +4335,67 @@
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.05481979017059815</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.02291612023320728</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.03064746356809021</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
         <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.02848240297272074</v>
+        <v>0.01166114376161707</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>0.03046286514715778</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.004655734157730896</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.0003855999512519972</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01076395313863391</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.03435766660008039</v>
+        <v>-0.02341091064655549</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>0.02148670067886784</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.02867659556518369</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.005843258119904952</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01511732395520613</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
         <v>-0</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>-0.01771456769903796</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
@@ -4418,25 +4418,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2027669383161405</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.2544148304269785</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0208267818365998</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.08090334743257342</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02263765008376854</v>
+        <v>-0.06348880322656947</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.03082242257387469</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009149869618983212</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.169432811088574</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.1705771301089562</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.009288255758078316</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.03084949665462829</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.05822010945367151</v>
+        <v>-0.03916080046217604</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.0182647761061194</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.005006607697338266</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,52 +4472,52 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02492746378972746</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.07247514678859363</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02338516506712609</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.02259412542925097</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1002203239882319</v>
+        <v>0.03390489275307827</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.01156401618900172</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.08414313809397513</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.007926741063960472</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0519272988658465</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.034351257971378</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0.01645288554819481</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01488808047901443</v>
+        <v>-0.01037722191608653</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.01454376237645992</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.06528043458989101</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -4526,133 +4526,133 @@
         <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.05142941001555487</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01754840614655391</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.003013266638762304</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.05441880247909799</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01303459136464041</v>
+        <v>-0.05663756222168156</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.03143019210083094</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01165555255587774</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1415799184926967</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.2787018848906869</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.02496468836847931</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.03738360019611399</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02566071500293014</v>
+        <v>0.02929327527534451</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.02863277868660639</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.03903116834606433</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05927045195732807</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.03650298200421864</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.01290730312820056</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.06193345691294583</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.03002652912987703</v>
+        <v>-0.1060179102568253</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.05137240778747439</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.009608323057904999</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.03988403161023665</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.05932261603251734</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.02014994847187563</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.04508413113331623</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.06887550626235951</v>
+        <v>0.094391374834789</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.03433326477452107</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.01563200525829752</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1027020959534152</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.1230887088480027</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.006188045642625374</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>-0.0003152629878677693</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.00328697892458446</v>
+        <v>0.01546761993453965</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>0.01300657820283278</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01088589976620926</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,52 +4661,52 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.06288260009092785</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.06474389223451436</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.007060722360605846</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.01030704245457573</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.008070022976389877</v>
+        <v>-0.0004332358752207977</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.02393477941510408</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.00965638427149626</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.001737894037512727</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.002434142779234652</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.0006741746255287299</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.02065829896247383</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.02190612666770806</v>
+        <v>-0.0234808539883039</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.008576863631374715</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.01441360021758538</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,79 +4715,79 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.05800093631092833</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.0520136138771025</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01207016256994083</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.02975399520487267</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.01295576343723025</v>
+        <v>0.002781641474466557</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.02345080712251381</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0.002845061746111735</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0.006518663430002194</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.02126049947314931</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0081251113109269</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.04586223475190544</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.000665050526643147</v>
+        <v>-0.003515885707480859</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.01155736460264912</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.0067018619579487</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.01903966810187102</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.007481895029152985</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.002331479062982404</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.03647467734874746</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.01235191918788217</v>
+        <v>-0.01213211435547958</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.02191089508513551</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0415747059198227</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
@@ -4796,243 +4796,243 @@
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.001302484902014811</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.03110354056448166</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.01041244672910338</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0.01422892835801701</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.01183599062058231</v>
+        <v>0.006850586820937729</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>0.03109727963270507</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.005623683242234955</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.09957139398378502</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.07559501792916618</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.002816937973323135</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.03133453656266989</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01285569443117169</v>
+        <v>0.05036814724132325</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.01740575306078377</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.03285841652440512</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.02020539253950864</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.04941886702989354</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.01310053105152157</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.024730117293911</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.03263214992370857</v>
+        <v>0.01927854337588088</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.04276023830144388</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.014124673187668</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.05571635938843197</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.05178251800645158</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01042992034060372</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>0.01237272072918067</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.007956551176616053</v>
+        <v>0.00867046598557298</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.02857985326345245</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0.00308845566230674</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.06882651508264682</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0.02475879511597032</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.03053442213863559</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.03219089424031935</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.04080316655526412</v>
+        <v>0.004574312554070849</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>-0.01453576872992135</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.01678082503949955</v>
+        <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.003668948557019771</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.003527819883250769</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.00667536827697485</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0.01162157996649836</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01200469097714861</v>
+        <v>-0.02099817182313915</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.02062933021221709</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.004865927424272868</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.04850888437024592</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.01613676611227705</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.01482203940525988</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.04654164419198333</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.02467008542999251</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02629973467547457</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1503941078694354</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.237896476817857</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.0436093735245818</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05184654694166788</v>
+        <v>-0.03038822293661352</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02278792185866996</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1265993010394744</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1481732776272314</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.03781628543730666</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.07409461407745684</v>
+        <v>-0.0243820948688811</v>
       </c>
       <c r="O9" t="n">
         <v>-0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0006257276704417073</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,52 +5041,52 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006285368908201959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.06073600166415747</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0</v>
+        <v>0.013108936085467</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.04437155347747636</v>
+        <v>0.06282373794721195</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.04842521627161983</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02020829861649697</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.07110652727877237</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0.02623933742767117</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.001930608724345071</v>
+        <v>-0.02361438632614427</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03946027095567632</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -5095,133 +5095,133 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.03724600554058446</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.02063627480564742</v>
       </c>
       <c r="AM9" t="n">
         <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.05842278690262018</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01089251194844294</v>
+        <v>-0.04815023385989389</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.011033029582516</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1120070027458334</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.2493982048527771</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0.0373742836404579</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01545075994299173</v>
+        <v>0.09738027813142754</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.02810451956143122</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.04158669730848105</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.01096617176364721</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.08998409461166423</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.04772149366297762</v>
+        <v>-0.07987468970940774</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0171180531752326</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.02741750044168295</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.05257468434215243</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.03605957888914056</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.03947103967274011</v>
+        <v>0.1518119628043807</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.008684511788001026</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.08051616191078328</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1254533628935607</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.04334707789584909</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.01415548634315191</v>
+        <v>0.0486730181786706</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.01311092235477767</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
@@ -5230,25 +5230,25 @@
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.04281708457952382</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.06624784033914478</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>-0.007135762293731935</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01508323837073403</v>
+        <v>-0.004683987820704888</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.01130201127314945</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -5257,52 +5257,52 @@
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.002946771002478481</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.004672098393066564</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.0328052963582822</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.01471462446988082</v>
+        <v>-0.03981975345119936</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.016118538176261</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.03972232413271833</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.04940858106735858</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.01094439048801722</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.003370746840642195</v>
+        <v>-0.006561666691859244</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.005947660727844488</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
@@ -5311,160 +5311,160 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.0027758268877218</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.02363498809162607</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.01377598302955775</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.003836192355096762</v>
+        <v>0.02003233016544772</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.005252644196226528</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01404476775761695</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.03103811151677779</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>0.05725975771608918</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01853756713494031</v>
+        <v>-0.036431311288004</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.03231310999364879</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.005314573095312225</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03536288546140816</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>-0.01318772188686606</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0226058880681636</v>
+        <v>0.02492397921502441</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-9.170313296950516e-05</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.06674644315904026</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.07119682298795864</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0.009817477845721373</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01118099763275151</v>
+        <v>0.0546578867457018</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.02271781288077831</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.00936539925728031</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.02772870767862578</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.02722572689726733</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03799985327528065</v>
+        <v>0.02496594117444132</v>
       </c>
       <c r="ET9" t="n">
         <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.006491857237480947</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.03621288057305894</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05004109852386204</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>-0.0101473473051773</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.0008964470564646764</v>
+        <v>0.009464303246608659</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.005770967077773564</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
@@ -5473,52 +5473,52 @@
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.04958484811819154</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.01961020720907754</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.01170434954569517</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.04032212378048156</v>
+        <v>0.02795329823030964</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.009010086180980304</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.0008938384117319659</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.001265778513684855</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>0.02191412973035731</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.001436887111401688</v>
+        <v>-0.0063335908818302</v>
       </c>
       <c r="FU9" t="n">
         <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.002235946171295268</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
@@ -5527,54 +5527,54 @@
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.03666636436523674</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.006831559721899597</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.07284799265092745</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.01771028393324494</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2498935256447037</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.3181714060222989</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1478853514552873</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07777911807256392</v>
+        <v>-0.06921121801587908</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.2200405188573906</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
@@ -5583,25 +5583,25 @@
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2411358737240681</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2662765277523556</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.144364138622551</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04545370216994336</v>
+        <v>-0.009229229026850756</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-0.1841052981580193</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
@@ -5610,106 +5610,106 @@
         <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02257901377719898</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.03174655778379745</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.0464374738123637</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1401997021029407</v>
+        <v>-0.02973079441249544</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0.02237286862707015</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01087407266009958</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.00789349131374752</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.008855088022179169</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.08407996569960609</v>
+        <v>0.02687583523725001</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0.008286817877531142</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.06495234249003712</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.05220196105579709</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.02382656927396817</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.03549761230405856</v>
+        <v>-0.00347618845568394</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>-0.06781739298557067</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1488612786185171</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.2540688296376737</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.08695069069633496</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.00403546453286144</v>
+        <v>-0.02325799582030611</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.09869836344767019</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
@@ -5718,25 +5718,25 @@
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.04513627727955801</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.06601382469865869</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.0479513239084968</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.1020939219612046</v>
+        <v>-0.06550797205784568</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>-0.09328528101738426</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -5745,49 +5745,49 @@
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.0101136495622257</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.05522049086429748</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.05687437094624601</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.1065255693230012</v>
+        <v>0.02332168532923288</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0</v>
+        <v>0.003145393272133907</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.1537171744385636</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1356888450955493</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.0506856895868911</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.00373717115672772</v>
+        <v>-0.02857721706062801</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.05928649705528599</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
@@ -5796,28 +5796,28 @@
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.06978000033674039</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.07046015812946713</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.03500861911573878</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.001362881291481744</v>
+        <v>-0.004369425689960977</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>0.05098138898492927</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -5826,52 +5826,52 @@
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.009518851266607705</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.002705946854953744</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0.0134863171333561</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.03042349647860998</v>
+        <v>-0.01107657445476865</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>-0.05462684939216569</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.06395413660253835</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.06408456696946062</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.03522654587694299</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.03023653600263715</v>
+        <v>-0.005020275297892534</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.05047307577611771</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>-0</v>
@@ -5880,22 +5880,22 @@
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.02068134039720409</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.04058528403830124</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.05288976604234708</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.006542641598352441</v>
+        <v>0.07237179471718447</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0.06468112311974526</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,25 +5904,25 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.00896487334191276</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.02334669534832587</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.03144298768491491</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.04138226867891995</v>
+        <v>0.02248313688735628</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0.01926656340829383</v>
       </c>
       <c r="DT10" t="n">
         <v>0</v>
@@ -5931,25 +5931,25 @@
         <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.00262174909432027</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.06729577112161042</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0.008370502320807664</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.0272663599132525</v>
+        <v>0.02003493381474684</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0.04051045600176061</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
@@ -5958,52 +5958,52 @@
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.1134300703709713</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.07345831806276373</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.04419000229616279</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.005693523481085927</v>
+        <v>0.02928797524045762</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>0.02975832967714346</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.04127460715561827</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.06063270402598368</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.02783041066649928</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.01143883932013696</v>
+        <v>-0.0292228082335334</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>-0.005057622525602738</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
@@ -6012,25 +6012,25 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.06501653344990269</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.06449076470142905</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.03170973082195356</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.02191293729841125</v>
+        <v>0.003430011345034501</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0.04994541051334974</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
@@ -6042,22 +6042,22 @@
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.05143021235340325</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>-0.03918592546325897</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.04864085760203135</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.04410906712438215</v>
+        <v>0.004166144048948783</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>0.03314108608817785</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6069,52 +6069,52 @@
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0008112481159580561</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-1.50382873160811e-05</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.02813440094573165</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.002280131084949523</v>
+        <v>-0.002937896110566618</v>
       </c>
       <c r="FU10" t="n">
-        <v>0</v>
+        <v>0.04561278709279139</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.03304350350989622</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.002126888166033868</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.02768391411873893</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0</v>
+        <v>-0.04145732581334896</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>-0</v>
@@ -6125,157 +6125,157 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2644407000903667</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.4944175880602533</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.140383548955556</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03888133474879937</v>
+        <v>-0.1198894349094563</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.4544460008606231</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2444546254510327</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.4274607518904434</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1416396614160426</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.07237771528084881</v>
+        <v>-0.04888874850773579</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.4157528138401824</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
         <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01404228301288901</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.04063933094066322</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.03993649905748393</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0993790836723342</v>
+        <v>-0.08967454752124288</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01598316809495008</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01037313055485913</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.02252847513618931</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.004609166492016547</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0460382755078793</v>
+        <v>-0.008390708569729568</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>-0.03544500394326719</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.05427554150999982</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.08318877872611036</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.01672309222850446</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03555306511048453</v>
+        <v>-0.0007077278191615895</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.08540701532056351</v>
       </c>
       <c r="AQ11" t="n">
         <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1460701731158664</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.4218259438604975</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.07524447145687044</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.01360360646447119</v>
+        <v>-0.06897385573744649</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.2205919160920708</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0580443801369056</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.1099878069610339</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.05691937394088734</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.06994205162114447</v>
+        <v>-0.1555668212240102</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.2031233903851091</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6311,52 +6311,52 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.01150158480263817</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.1451342674025795</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.04644679647099777</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.09927275775304692</v>
+        <v>-0.002556688646453596</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.0211355153587851</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1373213821763355</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.2207219932939731</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.03532023597514009</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0122130385352283</v>
+        <v>-0.06717633274302381</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>-0.129854641674758</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,25 +6365,25 @@
         <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.06788477473652596</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.08697241061607046</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.03386671973538954</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.005920694896473241</v>
+        <v>-0.005260933946613045</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.1102993405917673</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,49 +6395,49 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.01145070283603392</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-4.43257607350541e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.005485118005352759</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.04594904175091556</v>
+        <v>0.01466065102031537</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0</v>
+        <v>-0.02412898156694127</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.06005022880446361</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.0687753690642883</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.03734250032768984</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.01939043133490688</v>
+        <v>-0.001385798239291539</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.1157981227674384</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6449,22 +6449,22 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.02948581839397218</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.04431739291869521</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02792680718454284</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.01786544551262624</v>
+        <v>0.0469190519338525</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>0.0004228659813447472</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,106 +6473,106 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01038744246551069</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>0.006641109162840441</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01016640094877604</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02490394261820529</v>
+        <v>0.03409219115504388</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>-0.007839961212285225</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.01094685947325825</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.05630551712360807</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.01951893401203639</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01412053395346016</v>
+        <v>0.01739268735557954</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0.05349210144062201</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE11" t="n">
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1045113174563342</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.1002099334802206</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.03822247990193594</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.004739797953886641</v>
+        <v>0.02829821554655291</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.1234794527568776</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.04600633520303638</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.03354367535041377</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.03848275811880133</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.002333179704209135</v>
+        <v>-0.01138240262551658</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.07389758701291133</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6581,25 +6581,25 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.06251633040971741</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.06650577815978947</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.03230243494312827</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.008091513577594633</v>
+        <v>0.00686835868898876</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.1058259541203652</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6611,79 +6611,79 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.03512528275038281</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.005797606991718213</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.03622616537246701</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02885094934601858</v>
+        <v>-0.008269053209006944</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.05044232467575337</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0002286114105878208</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>0.005420703803291718</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02508372829122206</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.006673593416086556</v>
+        <v>-0.008628367138022312</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03001674149327355</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.03881912876419009</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.04279250744070507</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.01700266929431415</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.05313188342164341</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -6721,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -6748,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -6856,10 +6856,10 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
@@ -6883,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
@@ -6910,10 +6910,10 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
@@ -6964,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
@@ -7045,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
@@ -7072,10 +7072,10 @@
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
@@ -7099,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
@@ -7126,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7290,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7371,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
@@ -7832,22 +7832,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2108844656191346</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.1465852228526663</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06202371341921273</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04652277785513513</v>
+        <v>-0.07399542798630397</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.0709790340585276</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7859,133 +7859,133 @@
         <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1785434502842192</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0.1108856173884611</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.06842015522933373</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.02779289869420283</v>
+        <v>-0.04595669083434802</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0.06470193804116534</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.004028336479036446</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0.01286623979709052</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.0211719142232543</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.05089798331686285</v>
+        <v>-0.006100835549428585</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.009342836230473214</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0112547887691876</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>-0.004928984544738137</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.006759493552045296</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
         <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03096747713257043</v>
+        <v>0.01258156439247423</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>0.01050107998378377</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.03319941922597087</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.009158633067053728</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0.01618701468031808</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.01660888013868982</v>
+        <v>-0.009344143710511673</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>-0.01452169277157193</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1086519217606245</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>0.1019198328055797</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.04587027033490666</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
         <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.001478461385411609</v>
+        <v>-0.02807047747016878</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0.02016552463268135</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
         <v>-0</v>
@@ -7994,22 +7994,22 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.02951136512167407</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.03040979956368515</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0.01434738445103083</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0417743503180299</v>
+        <v>-0.05200338909831748</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>-0.06011200255662029</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8018,52 +8018,52 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.01610058874411508</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.03426528983123459</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.02224014358942724</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.06037993588835995</v>
+        <v>0.01557273011220122</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0.01534036555480199</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.09379543699617385</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.047368182566852</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0.03162186937033978</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01467568031001926</v>
+        <v>-0.01165554142871243</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0.01167342535910132</v>
       </c>
       <c r="CA14" t="n">
         <v>-0</v>
@@ -8075,157 +8075,157 @@
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.05153671998720061</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0.02434920044063748</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0202893252576313</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.002310745274158589</v>
+        <v>0.006277110844750866</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>0.01747917093761229</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.01258561254520112</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0.0008711438210970087</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.003988335812924486</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.02859336985193011</v>
+        <v>-0.004870258777359961</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>-0.01055356244104783</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
         <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.04819993254886063</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.01837875031968109</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.01994793739296669</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.01373535036184261</v>
+        <v>0.005788378002291633</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0</v>
+        <v>0.01825785415799794</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.02999725786545435</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0.03055706956215015</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.02875157434644538</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.02956102803186164</v>
+        <v>0.04795676047248516</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0</v>
+        <v>0.01313787130993649</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.004733889915508534</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.004916013979101529</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.008054253978670224</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01891962113321848</v>
+        <v>0.01919661233951572</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>-0.007774198957988798</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
         <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.01189857549571358</v>
+        <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>-0.02846097191678534</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0.00539528414753775</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
         <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.002837663964407863</v>
+        <v>0.01360604075316584</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0.01789462456361692</v>
       </c>
       <c r="EC14" t="n">
         <v>-0</v>
@@ -8237,148 +8237,148 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.07553288947533092</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.02911864151567194</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.01556433674537189</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.005011102065055525</v>
+        <v>0.008480714679931127</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>0.01387669463880132</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.02823512179827539</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0.01260822431150292</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.03699895694443955</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.001673309377715032</v>
+        <v>0.003845554478425642</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>-0.01036215508293767</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
         <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.04694984599408803</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0.01930000018848992</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.01957100129804638</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.007434630854454969</v>
+        <v>0.008683513147103507</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0.02122334911163535</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.03394447486563531</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.01604457638516874</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.01173657506427955</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
         <v>-0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.02345968195898548</v>
+        <v>0.01197799151554985</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>0.01949669269291303</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.0001857647279689797</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>0.0001186836000044023</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.001599883914205675</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
         <v>-0</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001219685678522032</v>
+        <v>-0.001333692896077636</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0.0182015524807463</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.01359514208915636</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.0001952809621877177</v>
       </c>
       <c r="GA14" t="n">
-        <v>-0.008906735811767527</v>
+        <v>-0</v>
       </c>
       <c r="GB14" t="n">
         <v>-0</v>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0.00411468136418883</v>
       </c>
       <c r="GE14" t="n">
         <v>0</v>
@@ -8401,103 +8401,103 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0.8502837428435279</v>
       </c>
       <c r="B15" t="n">
         <v>-0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3292179365749854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1293089479580077</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09972499416197705</v>
+        <v>-0.05655871633976203</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.687231382981478</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.4323332666266763</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3575542523748818</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.08098401933601222</v>
+        <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06057969494785199</v>
+        <v>-0.1602354216972428</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>1.278894506970289</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0.1922866802710226</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04065611681664406</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03664153255665673</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1310167477889283</v>
+        <v>0.5082619239813235</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.1915377317545275</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>-0.2231365369000803</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.02208512452588059</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.04515877003174518</v>
+        <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.1221291863680247</v>
+        <v>0.1062409241909324</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.09126751785465746</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8506,25 +8506,25 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>-0.1899579490643113</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.05165388935388773</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.01233315678048462</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.06746180269888394</v>
+        <v>-0.01888882982903044</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>0.06123801101473281</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8533,25 +8533,25 @@
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>-0.6097803001632807</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1380060163892509</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.009531342683295505</v>
+        <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.07893466341581705</v>
+        <v>0.6201411756746733</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>1.052831566551708</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8563,25 +8563,25 @@
         <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>-0.2060866365751479</v>
       </c>
       <c r="BD15" t="n">
         <v>-0</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.06993223790411202</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.0714821300898819</v>
+        <v>-0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.1391649256087515</v>
+        <v>-0.1354846950335468</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.1952686044250534</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -8590,49 +8590,49 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>-0.03870840396197738</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0.07826936054150546</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.00895151709590186</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.09997265344388476</v>
+        <v>0.06466038365058653</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.1143795097060027</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>-0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>-0.4089227988679115</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.08142512713378978</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.007420177241509984</v>
+        <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.02434723299462845</v>
+        <v>0.3257989605731144</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>0.6145798994091752</v>
       </c>
       <c r="CA15" t="n">
         <v>-0</v>
@@ -8644,184 +8644,184 @@
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0.2339331298305126</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0.06267267353209802</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.05190861697921751</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.01466137970097844</v>
+        <v>-0.03677137526617377</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>-0.3353032623842591</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
         <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>-0.01918928072767162</v>
       </c>
       <c r="CN15" t="n">
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0566280848381512</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.02083911008794289</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.03345545608796653</v>
+        <v>-0.5706829987925043</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.08236883473748149</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>0.2203005068442297</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0.05241451429155598</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.04280321959447272</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.002535549624520029</v>
+        <v>-0.03393527105203356</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>-0.3184503568692622</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>-0.001021463966942377</v>
       </c>
       <c r="DF15" t="n">
         <v>-0</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0.03638414162735421</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.002775660463801748</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.0497219164817222</v>
+        <v>-0.4784050070619013</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>-0.04168057656363482</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0.1183995626040507</v>
       </c>
       <c r="DO15" t="n">
         <v>-0</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.02369186045961704</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.03403568521712164</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.1088166732208287</v>
+        <v>-0.1265712080371372</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>-0.09133203575488023</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0.05651170388601569</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.02968182898603221</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0315736849678314</v>
+        <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.04730712861535543</v>
+        <v>0.02092785148218939</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0.4458962471348428</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0.150650987458159</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0.08635563279635448</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.08712655826211647</v>
+        <v>-0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.09546846060398953</v>
+        <v>0.1534375046047704</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>-0.2033266677291174</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
@@ -8830,142 +8830,142 @@
         <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0.08454460904624655</v>
       </c>
       <c r="EP15" t="n">
         <v>-0</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0008320629275129682</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.02379423271603591</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.02383201822831657</v>
+        <v>-0.3250134762032604</v>
       </c>
       <c r="ET15" t="n">
-        <v>0</v>
+        <v>-0.06627756881633352</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV15" t="n">
         <v>-0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0.187822665324337</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0.05616717179203592</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.05421207175174802</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.006175617363294176</v>
+        <v>-0.08804884683926674</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>-0.2809320706643329</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>-0.09838211950112487</v>
       </c>
       <c r="FH15" t="n">
         <v>0</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.06684000888708461</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.0447244555050378</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.01003960867012828</v>
+        <v>0.08654835641166246</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>-0.003487209481427227</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0.02852771258249955</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.01032593524175538</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.004142566747547008</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0006260630572148339</v>
+        <v>0.004379587628498551</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>-0.3123973185146371</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0.09610245220745987</v>
       </c>
       <c r="FZ15" t="n">
         <v>-0</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.06955472564637759</v>
+        <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-7.265648137074599e-05</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.05448303746657592</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
